--- a/strengthData-compiled.xlsx
+++ b/strengthData-compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkiel\Github\acerMechanicalStrength\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E63BE-1449-4A90-8C33-8861215BA35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4309013-06F2-43BD-9CBD-8ED3F88D8868}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{17AC6C6F-25B4-4DB3-87A9-A95A5364761F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>L/D</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Modulus.Gpa</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>porosity</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1189,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2355,1223 +2361,1296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBA72DF-4F7A-485E-A188-D9515BC1B657}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="12"/>
-    <col min="6" max="8" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="12"/>
-    <col min="15" max="15" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="12"/>
+    <col min="2" max="2" width="8.08984375" style="12" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="12"/>
+    <col min="7" max="9" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="12"/>
+    <col min="16" max="16" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="12">
         <v>15.838186587236292</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>2.3206164022606535</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="13">
         <v>45</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>22.85</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>1.9693654266958422</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>24.538280273976749</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="16">
         <v>0.13202222222222224</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>2.7839</v>
       </c>
-      <c r="J2" s="17">
+      <c r="K2" s="17">
         <v>3.9921000000000002</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>5.21E-2</v>
       </c>
-      <c r="L2" s="17">
+      <c r="M2" s="17">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>0.25170833333333342</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>1.95</v>
       </c>
-      <c r="O2" s="12">
+      <c r="P2" s="12">
         <v>1785217349632.5371</v>
       </c>
-      <c r="P2" s="18">
+      <c r="Q2" s="18">
         <v>1785.2173496325372</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12">
         <v>25.647520354692439</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>2.0315261706592529</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="13">
         <v>39</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>19.37</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>2.0134228187919461</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>11.312595700478102</v>
       </c>
-      <c r="H3" s="16">
+      <c r="I3" s="16">
         <v>4.3553846153846158E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>2.699395200513766</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>5.845707380425063</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>4.6148148148148155E-3</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>9.888888888888888E-3</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>0.59656200040452989</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>0.51</v>
       </c>
-      <c r="O3" s="12">
+      <c r="P3" s="12">
         <v>3966946032300.6294</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>3966.9460323006292</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="12">
         <v>22.739057589061897</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>2.1483446828015502</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <v>45</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>20.11</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>2.2376926902038785</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>17.716987236283316</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="16">
         <v>3.2176000000000003E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>1.9437</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>6.2522000000000002</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>0.39893518518518528</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>0.45</v>
       </c>
-      <c r="O4" s="12">
+      <c r="P4" s="12">
         <v>9310124344258.6934</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <v>9310.1243442586929</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12">
         <v>17.477581202819479</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>2.280129453834582</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <v>45</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>22.25</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>2.0224719101123596</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>14.662434782873893</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="16">
         <v>2.7688888888888888E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>2.7018</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>5.6672000000000002</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>5.3E-3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>0.76035897435897448</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.38</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="12">
         <v>6088759788716.4785</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>6088.7597887164784</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12">
         <v>34.249023861171359</v>
       </c>
-      <c r="C6" s="12">
+      <c r="D6" s="12">
         <v>1.7893248388720175</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <v>43.7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>15.85</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>2.7570977917981074</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>7.373791444120843</v>
       </c>
-      <c r="H6" s="16">
+      <c r="I6" s="16">
         <v>1.742953044735009E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>1.4845397063168433</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>3.6881533328809075</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>8.4657719315700455E-3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>1.1951678021040061E-2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>0.63214945268336076</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>0.34</v>
       </c>
-      <c r="O6" s="12">
+      <c r="P6" s="12">
         <v>12171049863559.119</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="18">
         <v>12171.049863559119</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12">
         <v>29.538126058412789</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D7" s="12">
         <v>1.9578312629503327</v>
       </c>
-      <c r="D7" s="19">
+      <c r="E7" s="19">
         <v>43.4</v>
       </c>
-      <c r="E7" s="19">
+      <c r="F7" s="19">
         <v>14.36</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>3.0222841225626742</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17">
         <v>12.356986947256186</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>5.5349232304784557E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>1.7933287710763228</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>4.2633079192517878</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>1.7382403533733992E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>2.1041856909256942E-2</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>0.6749584964509886</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>1.21</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>8332350120092.7441</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="18">
         <v>8332.350120092744</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="12">
         <v>12.604548985095606</v>
       </c>
-      <c r="C8" s="12">
+      <c r="D8" s="12">
         <v>2.4297942660986269</v>
       </c>
-      <c r="D8" s="19">
+      <c r="E8" s="19">
         <v>40</v>
       </c>
-      <c r="E8" s="19">
+      <c r="F8" s="19">
         <v>20.73</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>1.929570670525808</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="17">
         <v>20.701791236214536</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="20">
         <v>5.4416249999999992E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>1.3763000000000001</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>3.0074999999999998</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>8.6E-3</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>0.34706382978723399</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>0.7</v>
       </c>
-      <c r="O8" s="12">
+      <c r="P8" s="12">
         <v>4349922447454.0049</v>
       </c>
-      <c r="P8" s="18">
+      <c r="Q8" s="18">
         <v>4349.9224474540051</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12">
         <v>14.907821478168929</v>
       </c>
-      <c r="C9" s="12">
+      <c r="D9" s="12">
         <v>2.3857593789448197</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E9" s="19">
         <v>45</v>
       </c>
-      <c r="E9" s="19">
+      <c r="F9" s="19">
         <v>18.07</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>2.4903154399557277</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17">
         <v>16.036356954016235</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I9" s="20">
         <v>2.4093333333333335E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>0.63739999999999997</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>2.6295999999999999</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>0.62256250000000002</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>0.45</v>
       </c>
-      <c r="O9" s="12">
+      <c r="P9" s="12">
         <v>12926679937741.873</v>
       </c>
-      <c r="P9" s="18">
+      <c r="Q9" s="18">
         <v>12926.679937741874</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12">
         <v>16.104154501611188</v>
       </c>
-      <c r="C10" s="12">
+      <c r="D10" s="12">
         <v>2.3222803056640497</v>
       </c>
-      <c r="D10" s="19">
+      <c r="E10" s="19">
         <v>45</v>
       </c>
-      <c r="E10" s="19">
+      <c r="F10" s="19">
         <v>21.87</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>2.0576131687242798</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <v>11.487142025451352</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>1.6848000000000002E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>3.4262000000000001</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>6.1170999999999998</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>0.68997435897435877</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>0.26</v>
       </c>
-      <c r="O10" s="12">
+      <c r="P10" s="12">
         <v>7469128235264.6904</v>
       </c>
-      <c r="P10" s="18">
+      <c r="Q10" s="18">
         <v>7469.1282352646904</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12">
         <v>31.292346844446357</v>
       </c>
-      <c r="C11" s="12">
+      <c r="D11" s="12">
         <v>1.9150921355316535</v>
       </c>
-      <c r="D11" s="19">
+      <c r="E11" s="19">
         <v>44.9</v>
       </c>
-      <c r="E11" s="19">
+      <c r="F11" s="19">
         <v>15</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <v>2.9933333333333332</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>7.5801137370303531</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I11" s="20">
         <v>4.9106899271332983E-3</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>2.1431</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>6.6193</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>1.6578518518518519</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>0.11</v>
       </c>
-      <c r="O11" s="12">
+      <c r="P11" s="12">
         <v>52293280560752.195</v>
       </c>
-      <c r="P11" s="18">
+      <c r="Q11" s="18">
         <v>52293.280560752195</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12">
         <v>27.326749317083433</v>
       </c>
-      <c r="C12" s="12">
+      <c r="D12" s="12">
         <v>2.0316063619079641</v>
       </c>
-      <c r="D12" s="19">
+      <c r="E12" s="19">
         <v>44.5</v>
       </c>
-      <c r="E12" s="19">
+      <c r="F12" s="19">
         <v>14.21</v>
       </c>
-      <c r="F12" s="15">
+      <c r="G12" s="15">
         <v>3.1315974665728357</v>
       </c>
-      <c r="G12" s="17">
+      <c r="H12" s="17">
         <v>9.4869596650731207</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="20">
         <v>1.894427471278879E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>1.1220000000000001</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>2.8525999999999998</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>0.57686666666666664</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>44</v>
       </c>
-      <c r="O12" s="12">
+      <c r="P12" s="12">
         <v>197772982436.57196</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="18">
         <v>197.77298243657197</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="12">
         <v>23.942226493113182</v>
       </c>
-      <c r="C13" s="12">
+      <c r="D13" s="12">
         <v>2.1205658551197306</v>
       </c>
-      <c r="D13" s="19">
+      <c r="E13" s="19">
         <v>40</v>
       </c>
-      <c r="E13" s="19">
+      <c r="F13" s="19">
         <v>17.66</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <v>2.2650056625141564</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>14.552648314281225</v>
       </c>
-      <c r="H13" s="20">
+      <c r="I13" s="20">
         <v>4.437075E-2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>3.6762999999999999</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>6.1738</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>1.06E-2</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>0.75681818181818195</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>0.67</v>
       </c>
-      <c r="O13" s="12">
+      <c r="P13" s="12">
         <v>6065593090316.1855</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="18">
         <v>6065.5930903161852</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12">
         <v>36.15054428075959</v>
       </c>
-      <c r="C14" s="12">
+      <c r="D14" s="12">
         <v>1.7281837576662891</v>
       </c>
-      <c r="D14" s="19">
+      <c r="E14" s="19">
         <v>45</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>13.47</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>3.3407572383073494</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
         <v>14.647879808646712</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>7.9822222222222221E-3</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <v>3.1141999999999999</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>6.2321999999999997</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>2E-3</v>
       </c>
-      <c r="M14" s="21">
+      <c r="N14" s="21">
         <v>3.8974999999999991</v>
       </c>
-      <c r="N14" s="21">
+      <c r="O14" s="21">
         <v>0.2</v>
       </c>
-      <c r="O14" s="12">
+      <c r="P14" s="12">
         <v>86040077805082.219</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="18">
         <v>86040.077805082212</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12">
         <v>34.976527341600033</v>
       </c>
-      <c r="C15" s="12">
+      <c r="D15" s="12">
         <v>1.7766691785864601</v>
       </c>
-      <c r="D15" s="19">
+      <c r="E15" s="19">
         <v>48.6</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <v>15.6</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <v>3.1153846153846154</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>7.4283052330712733</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>3.9628105471726871E-3</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>1.5419</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="10">
         <v>3.2050999999999998</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>2E-3</v>
       </c>
-      <c r="M15" s="21">
+      <c r="N15" s="21">
         <v>2.0789999999999997</v>
       </c>
-      <c r="N15" s="21">
+      <c r="O15" s="21">
         <v>0.1</v>
       </c>
-      <c r="O15" s="12">
+      <c r="P15" s="12">
         <v>61106726502063.859</v>
       </c>
-      <c r="P15" s="18">
+      <c r="Q15" s="18">
         <v>61106.726502063859</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12">
         <v>44.150111858326227</v>
       </c>
-      <c r="C16" s="12">
+      <c r="D16" s="12">
         <v>1.4575842311671561</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="12">
         <v>40</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F16" s="12">
         <v>14.33</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="12">
         <v>2.7913468248429867</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>10.572168156696382</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>3.5840000000000004E-2</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J16" s="12">
         <v>2.5271599999999999</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>4.5011200000000002</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <v>2.4289999999999999E-2</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>2.708E-2</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>0.70751254480286729</v>
       </c>
-      <c r="N16" s="21">
+      <c r="O16" s="21">
         <v>0.99</v>
       </c>
-      <c r="O16" s="12">
+      <c r="P16" s="12">
         <v>6878804139523.8203</v>
       </c>
-      <c r="P16" s="12">
+      <c r="Q16" s="12">
         <v>6878.8041395238206</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12">
         <v>47.093065455020557</v>
       </c>
-      <c r="C17" s="12">
+      <c r="D17" s="12">
         <v>1.3501275091817033</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="12">
         <v>44</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F17" s="12">
         <v>16.440000000000001</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>2.6763990267639901</v>
       </c>
-      <c r="G17" s="12">
+      <c r="H17" s="12">
         <v>4.9056466456615917</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>2.3946694214876031E-2</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J17" s="12">
         <v>0.52703</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>1.4121300000000001</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="12">
         <v>1.478E-2</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>0.5823026315789479</v>
       </c>
-      <c r="N17" s="21">
+      <c r="O17" s="21">
         <v>1.02</v>
       </c>
-      <c r="O17" s="12">
+      <c r="P17" s="12">
         <v>2380322114743.7393</v>
       </c>
-      <c r="P17" s="12">
+      <c r="Q17" s="12">
         <v>2380.3221147437393</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12">
         <v>43.47816256206643</v>
       </c>
-      <c r="C18" s="12">
+      <c r="D18" s="12">
         <v>1.4969060693516147</v>
       </c>
-      <c r="D18" s="12">
+      <c r="E18" s="12">
         <v>41.6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="F18" s="12">
         <v>15.32</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <v>2.7154046997389036</v>
       </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <v>7.7210160943039767</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <v>6.9581638313609473E-2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J18" s="12">
         <v>1.32843</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <v>2.2650100000000002</v>
       </c>
-      <c r="K18" s="12">
+      <c r="L18" s="12">
         <v>4.5150000000000003E-2</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <v>4.727E-2</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>0.44178301886792526</v>
       </c>
-      <c r="N18" s="21">
+      <c r="O18" s="21">
         <v>1.5</v>
       </c>
-      <c r="O18" s="12">
+      <c r="P18" s="12">
         <v>2855071529343.7505</v>
       </c>
-      <c r="P18" s="12">
+      <c r="Q18" s="12">
         <v>2855.0715293437506</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12">
         <v>41.848756546992497</v>
       </c>
-      <c r="C19" s="12">
+      <c r="D19" s="12">
         <v>1.5287922601866768</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="12">
         <v>45.3</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>17.47</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <v>2.5930165998855181</v>
       </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <v>6.3553207875149198</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="12">
         <v>2.4007426574857826E-2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="J19" s="12">
         <v>0.90110000000000001</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <v>2.0646399999999998</v>
       </c>
-      <c r="K19" s="12">
+      <c r="L19" s="12">
         <v>1.226E-2</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>1.532E-2</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>0.38024183006535944</v>
       </c>
-      <c r="N19" s="21">
+      <c r="O19" s="21">
         <v>0.54</v>
       </c>
-      <c r="O19" s="12">
+      <c r="P19" s="12">
         <v>4984889856821.2793</v>
       </c>
-      <c r="P19" s="12">
+      <c r="Q19" s="12">
         <v>4984.889856821279</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12">
         <v>42.743940850767544</v>
       </c>
-      <c r="C20" s="12">
+      <c r="D20" s="12">
         <v>1.4940917773228122</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="12">
         <v>42.6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="F20" s="12">
         <v>16.37</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <v>2.6023213194868662</v>
       </c>
-      <c r="G20" s="12">
+      <c r="H20" s="12">
         <v>6.1762740907937763</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="12">
         <v>5.1957944852211856E-2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J20" s="12">
         <v>0.90854000000000001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>1.9511099999999999</v>
       </c>
-      <c r="K20" s="12">
+      <c r="L20" s="12">
         <v>1.299E-2</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="12">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="12">
         <v>0.38471217712177141</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O20" s="21">
         <v>1.02</v>
       </c>
-      <c r="O20" s="12">
+      <c r="P20" s="12">
         <v>2766618856836.8535</v>
       </c>
-      <c r="P20" s="12">
+      <c r="Q20" s="12">
         <v>2766.6188568368534</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12">
         <v>43.415232895265902</v>
       </c>
-      <c r="C21" s="12">
+      <c r="D21" s="12">
         <v>1.4342430275326437</v>
       </c>
-      <c r="D21" s="12">
+      <c r="E21" s="12">
         <v>44.17</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F21" s="12">
         <v>17.04</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <v>2.592136150234742</v>
       </c>
-      <c r="G21" s="12">
+      <c r="H21" s="12">
         <v>6.6046487583773503</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <v>7.1793745213004551E-2</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J21" s="12">
         <v>0.89432</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>1.3589800000000001</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <v>5.5550000000000002E-2</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <v>5.6070000000000002E-2</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>0.89357692307692393</v>
       </c>
-      <c r="N21" s="21">
+      <c r="O21" s="21">
         <v>1.6</v>
       </c>
-      <c r="O21" s="12">
+      <c r="P21" s="12">
         <v>1790698392195.2498</v>
       </c>
-      <c r="P21" s="12">
+      <c r="Q21" s="12">
         <v>1790.6983921952497</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12">
         <v>45.532247893573206</v>
       </c>
-      <c r="C22" s="12">
+      <c r="D22" s="12">
         <v>1.446247007012559</v>
       </c>
-      <c r="D22" s="12">
+      <c r="E22" s="12">
         <v>44.09</v>
       </c>
-      <c r="E22" s="12">
+      <c r="F22" s="12">
         <v>13.31</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>3.3125469571750563</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>11.03530977590634</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>1.5200253548472289E-2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>3.8525499999999999</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>4.17157</v>
       </c>
-      <c r="K22" s="12">
+      <c r="L22" s="12">
         <v>5.7499999999999999E-3</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <v>6.1599999999999997E-3</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>0.77809756097561034</v>
       </c>
-      <c r="N22" s="21">
+      <c r="O22" s="21">
         <v>0.4</v>
       </c>
-      <c r="O22" s="12">
+      <c r="P22" s="12">
         <v>31975804211208.859</v>
       </c>
-      <c r="P22" s="12">
+      <c r="Q22" s="12">
         <v>31975.804211208859</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12">
         <v>46.881569726699368</v>
       </c>
-      <c r="C23" s="12">
+      <c r="D23" s="12">
         <v>1.4422886535147681</v>
       </c>
-      <c r="D23" s="12">
+      <c r="E23" s="12">
         <v>47.41</v>
       </c>
-      <c r="E23" s="12">
+      <c r="F23" s="12">
         <v>14.28</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="12">
         <v>3.3200280112044815</v>
       </c>
-      <c r="G23" s="12">
+      <c r="H23" s="12">
         <v>11.105791735443519</v>
       </c>
-      <c r="H23" s="12">
+      <c r="I23" s="12">
         <v>3.3925757530526311E-2</v>
       </c>
-      <c r="I23" s="12">
+      <c r="J23" s="12">
         <v>2.2093799999999999</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <v>2.9179300000000001</v>
       </c>
-      <c r="K23" s="12">
+      <c r="L23" s="12">
         <v>1.83E-2</v>
       </c>
-      <c r="L23" s="12">
+      <c r="M23" s="12">
         <v>1.9060000000000001E-2</v>
       </c>
-      <c r="M23" s="12">
+      <c r="N23" s="12">
         <v>0.93230263157894744</v>
       </c>
-      <c r="N23" s="21">
+      <c r="O23" s="21">
         <v>0.89</v>
       </c>
-      <c r="O23" s="12">
+      <c r="P23" s="12">
         <v>13572048984694.467</v>
       </c>
-      <c r="P23" s="12">
+      <c r="Q23" s="12">
         <v>13572.048984694467</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12">
         <v>43.574205657594852</v>
       </c>
-      <c r="C24" s="12">
+      <c r="D24" s="12">
         <v>1.4721460091611926</v>
       </c>
-      <c r="D24" s="12">
+      <c r="E24" s="12">
         <v>42.2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="F24" s="12">
         <v>13</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <v>3.2461538461538462</v>
       </c>
-      <c r="G24" s="12">
+      <c r="H24" s="12">
         <v>6.5665431540877144</v>
       </c>
-      <c r="H24" s="12">
+      <c r="I24" s="12">
         <v>7.0079288425686755E-3</v>
       </c>
-      <c r="I24" s="12">
+      <c r="J24" s="12">
         <v>1.1201000000000001</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <v>2.29108</v>
       </c>
-      <c r="K24" s="12">
+      <c r="L24" s="12">
         <v>2.63E-3</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>0.8938778625954199</v>
       </c>
-      <c r="N24" s="21">
+      <c r="O24" s="21">
         <v>0.39</v>
       </c>
-      <c r="O24" s="12">
+      <c r="P24" s="12">
         <v>18802907227054.305</v>
       </c>
-      <c r="P24" s="12">
+      <c r="Q24" s="12">
         <v>18802.907227054304</v>
       </c>
     </row>
